--- a/Configs/Item.xlsx
+++ b/Configs/Item.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\BooomProject\Configs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D6B5601-03AF-4DBB-9D50-D99578EF5A36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3504" yWindow="2628" windowWidth="17280" windowHeight="8928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -28,150 +30,457 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>道具Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>图标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>堆积数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>效果ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试数组</t>
+  </si>
+  <si>
+    <t>测试字符串数组</t>
   </si>
   <si>
     <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>icon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>stack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>effectId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test1</t>
+  </si>
+  <si>
+    <t>test2</t>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试数组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试字符串数组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>int[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>string[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>回复剂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lifeMedicine</t>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+  </si>
+  <si>
+    <t>"测试","道具"</t>
   </si>
   <si>
     <t>复活药</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lifeMedicine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>raiseMedicine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>6,7,8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"测试","道具"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>"结果","复活"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -179,24 +488,310 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -245,7 +840,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -280,7 +875,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -454,26 +1049,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="A4" sqref="A4:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
-    <col min="8" max="8" width="23.109375" customWidth="1"/>
+    <col min="1" max="1" width="11.625" customWidth="1"/>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="3" max="3" width="15.125" customWidth="1"/>
+    <col min="4" max="4" width="15.375" customWidth="1"/>
+    <col min="5" max="5" width="16.5" customWidth="1"/>
+    <col min="6" max="6" width="16.625" customWidth="1"/>
+    <col min="7" max="7" width="19.125" customWidth="1"/>
+    <col min="8" max="8" width="27.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -496,56 +1093,56 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
         <v>19</v>
@@ -562,7 +1159,7 @@
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4">
         <v>99</v>
@@ -574,10 +1171,10 @@
         <v>92.5</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -585,10 +1182,10 @@
         <v>10002</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -597,17 +1194,17 @@
         <v>20003</v>
       </c>
       <c r="F5">
-        <v>20.100000000000001</v>
+        <v>20.1</v>
       </c>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H5" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Configs/Item.xlsx
+++ b/Configs/Item.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="道具表" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,55 +26,77 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Martian</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Martian:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+道具：10001-19999
+装备：20001-29999
+武器：30001-39999</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>道具Id</t>
   </si>
   <si>
-    <t>名称</t>
-  </si>
-  <si>
-    <t>图标</t>
-  </si>
-  <si>
-    <t>堆积数</t>
-  </si>
-  <si>
-    <t>效果ID</t>
-  </si>
-  <si>
-    <t>价格</t>
-  </si>
-  <si>
-    <t>测试数组</t>
-  </si>
-  <si>
-    <t>测试字符串数组</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>icon</t>
-  </si>
-  <si>
-    <t>stack</t>
-  </si>
-  <si>
-    <t>effectId</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>test1</t>
-  </si>
-  <si>
-    <t>test2</t>
+    <t>道具名称</t>
+  </si>
+  <si>
+    <t>道具图标</t>
+  </si>
+  <si>
+    <t>道具描述</t>
+  </si>
+  <si>
+    <t>道具价格</t>
+  </si>
+  <si>
+    <t>参数</t>
+  </si>
+  <si>
+    <t>itemId</t>
+  </si>
+  <si>
+    <t>itemName</t>
+  </si>
+  <si>
+    <t>itemIcon</t>
+  </si>
+  <si>
+    <t>itemDesc</t>
+  </si>
+  <si>
+    <t>itemPrice</t>
+  </si>
+  <si>
+    <t>itemAbilityValue</t>
   </si>
   <si>
     <t>int</t>
@@ -86,34 +108,22 @@
     <t>float</t>
   </si>
   <si>
-    <t>int[]</t>
-  </si>
-  <si>
-    <t>string[]</t>
-  </si>
-  <si>
-    <t>回复剂</t>
-  </si>
-  <si>
-    <t>lifeMedicine</t>
-  </si>
-  <si>
-    <t>1,2,3,4</t>
-  </si>
-  <si>
-    <t>"测试","道具"</t>
-  </si>
-  <si>
-    <t>复活药</t>
-  </si>
-  <si>
-    <t>raiseMedicine</t>
-  </si>
-  <si>
-    <t>6,7,8</t>
-  </si>
-  <si>
-    <t>"结果","复活"</t>
+    <t>金币</t>
+  </si>
+  <si>
+    <t>多多益善不是吗！</t>
+  </si>
+  <si>
+    <t>回复药</t>
+  </si>
+  <si>
+    <t>能够恢复生命值</t>
+  </si>
+  <si>
+    <t>修理工具</t>
+  </si>
+  <si>
+    <t>能够恢复耐久</t>
   </si>
 </sst>
 </file>
@@ -126,14 +136,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,6 +287,17 @@
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -589,153 +603,157 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1055,25 +1073,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:H5"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="$A1:$XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="11.625" customWidth="1"/>
     <col min="2" max="2" width="15.625" customWidth="1"/>
     <col min="3" max="3" width="15.125" customWidth="1"/>
-    <col min="4" max="4" width="15.375" customWidth="1"/>
-    <col min="5" max="5" width="16.5" customWidth="1"/>
-    <col min="6" max="6" width="16.625" customWidth="1"/>
-    <col min="7" max="7" width="19.125" customWidth="1"/>
-    <col min="8" max="8" width="27.875" customWidth="1"/>
+    <col min="4" max="5" width="16.625" customWidth="1"/>
+    <col min="6" max="6" width="19.7083333333333" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1089,122 +1106,106 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="B2" t="s">
         <v>7</v>
       </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>10001</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4">
-        <v>99</v>
+        <v>15</v>
+      </c>
+      <c r="C4"/>
+      <c r="D4" t="s">
+        <v>16</v>
       </c>
       <c r="E4">
-        <v>20002</v>
-      </c>
-      <c r="F4">
-        <v>92.5</v>
-      </c>
-      <c r="G4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>10002</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="C5"/>
+      <c r="D5" t="s">
+        <v>18</v>
       </c>
       <c r="E5">
-        <v>20003</v>
-      </c>
-      <c r="F5">
-        <v>20.1</v>
-      </c>
-      <c r="G5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" t="s">
-        <v>28</v>
+        <v>10</v>
+      </c>
+      <c r="F5" s="1">
+        <v>10</v>
       </c>
     </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>10003</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" ht="16.5"/>
+    <row r="8" ht="16.5"/>
+    <row r="9" ht="16.5"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Configs/Item.xlsx
+++ b/Configs/Item.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="25500" windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="道具表" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
     <t>参数</t>
   </si>
   <si>
-    <t>itemId</t>
+    <t>id</t>
   </si>
   <si>
     <t>itemName</t>
@@ -1073,15 +1073,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="$A1:$XFD3"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="11.625" customWidth="1"/>
     <col min="2" max="2" width="15.625" customWidth="1"/>
@@ -1157,7 +1157,6 @@
       <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="C4"/>
       <c r="D4" t="s">
         <v>16</v>
       </c>
@@ -1172,7 +1171,6 @@
       <c r="B5" t="s">
         <v>17</v>
       </c>
-      <c r="C5"/>
       <c r="D5" t="s">
         <v>18</v>
       </c>
@@ -1200,9 +1198,6 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" ht="16.5"/>
-    <row r="8" ht="16.5"/>
-    <row r="9" ht="16.5"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/Configs/Item.xlsx
+++ b/Configs/Item.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10951\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Unity项目\BOOOM\BooomProject\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB7CD356-36D9-48BB-8303-B0ABD19A27F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BCD5683-CB35-4061-947B-34C90C238443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="道具表" sheetId="1" r:id="rId1"/>
@@ -171,26 +171,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>在本层中，获得+1幸运</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在本层中，获得+1力量</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在本层中，获得+1体质</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在本层中，获得+1敏捷</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在本层中，获得+1灵巧</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>在本层中，通过战斗获得的金币增加</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -232,6 +212,26 @@
   </si>
   <si>
     <t>能够恢复更多生命值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在本层中，提高幸运等级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在本层中，提高力量等级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在本层中，提高体质等级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在本层中，提高敏捷等级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在本层中，提高灵巧等级</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -577,9 +577,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -603,7 +603,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -626,7 +626,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -649,7 +649,7 @@
         <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -703,13 +703,13 @@
         <v>10003</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F6">
         <v>16</v>
@@ -769,19 +769,19 @@
       <c r="D9">
         <v>1</v>
       </c>
-      <c r="E9" t="s">
-        <v>34</v>
+      <c r="E9" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="F9">
         <v>20</v>
       </c>
       <c r="G9" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
-        <f t="shared" ref="A10:A18" si="0">A9+1</f>
+        <f t="shared" ref="A10:A19" si="0">A9+1</f>
         <v>10007</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -790,14 +790,14 @@
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="E10" t="s">
-        <v>35</v>
+      <c r="E10" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="F10">
         <v>15</v>
       </c>
       <c r="G10" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -811,14 +811,14 @@
       <c r="D11">
         <v>1</v>
       </c>
-      <c r="E11" t="s">
-        <v>36</v>
+      <c r="E11" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="F11">
         <v>15</v>
       </c>
       <c r="G11" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -833,13 +833,13 @@
         <v>1</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="F12">
         <v>15</v>
       </c>
       <c r="G12" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -854,13 +854,13 @@
         <v>1</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="F13">
         <v>15</v>
       </c>
       <c r="G13" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -875,7 +875,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F14">
         <v>15</v>
@@ -896,7 +896,7 @@
         <v>2</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F15">
         <v>10</v>
@@ -917,7 +917,7 @@
         <v>2</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F16">
         <v>10</v>
@@ -935,7 +935,7 @@
         <v>2</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F17">
         <v>5</v>
@@ -956,7 +956,7 @@
         <v>2</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F18">
         <v>5</v>
@@ -966,6 +966,10 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>10016</v>
+      </c>
       <c r="B19" s="2" t="s">
         <v>33</v>
       </c>
@@ -973,7 +977,7 @@
         <v>2</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F19">
         <v>5</v>

--- a/Configs/Item.xlsx
+++ b/Configs/Item.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25500" windowHeight="17655"/>
+    <workbookView windowHeight="17655" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="道具表" sheetId="1" r:id="rId1"/>
+    <sheet name="使用场景" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="55">
   <si>
     <t>道具Id</t>
   </si>
@@ -72,6 +73,9 @@
     <t>道具图标</t>
   </si>
   <si>
+    <t>使用场景</t>
+  </si>
+  <si>
     <t>道具描述</t>
   </si>
   <si>
@@ -90,6 +94,9 @@
     <t>itemIcon</t>
   </si>
   <si>
+    <t>itemPos</t>
+  </si>
+  <si>
     <t>itemDesc</t>
   </si>
   <si>
@@ -120,10 +127,106 @@
     <t>能够恢复生命值</t>
   </si>
   <si>
+    <t>回复药+</t>
+  </si>
+  <si>
+    <t>能够恢复更多生命值</t>
+  </si>
+  <si>
     <t>修理工具</t>
   </si>
   <si>
     <t>能够恢复耐久</t>
+  </si>
+  <si>
+    <t>爆炸药水</t>
+  </si>
+  <si>
+    <t>对敌人造成伤害</t>
+  </si>
+  <si>
+    <t>运气药水</t>
+  </si>
+  <si>
+    <t>在本层中，获得+1幸运</t>
+  </si>
+  <si>
+    <t>力量药水</t>
+  </si>
+  <si>
+    <t>在本层中，获得+1力量</t>
+  </si>
+  <si>
+    <t>体质药水</t>
+  </si>
+  <si>
+    <t>在本层中，获得+1体质</t>
+  </si>
+  <si>
+    <t>敏捷药水</t>
+  </si>
+  <si>
+    <t>在本层中，获得+1敏捷</t>
+  </si>
+  <si>
+    <t>灵巧药水</t>
+  </si>
+  <si>
+    <t>在本层中，获得+1灵巧</t>
+  </si>
+  <si>
+    <t>窃贼药水</t>
+  </si>
+  <si>
+    <t>在本层中，通过战斗获得的金币增加</t>
+  </si>
+  <si>
+    <t>活力药水</t>
+  </si>
+  <si>
+    <t>在本回合中，获得+1行动点</t>
+  </si>
+  <si>
+    <t>烟雾弹</t>
+  </si>
+  <si>
+    <t>立即逃离本场战斗并回到上一个房间</t>
+  </si>
+  <si>
+    <t>血滴子</t>
+  </si>
+  <si>
+    <t>对敌人造成伤害并获得1层【流血】</t>
+  </si>
+  <si>
+    <t>毒飞刀</t>
+  </si>
+  <si>
+    <t>对敌人造成伤害并获得1层【中毒】</t>
+  </si>
+  <si>
+    <t>溶解剂</t>
+  </si>
+  <si>
+    <t>降低敌人一个部位的耐久</t>
+  </si>
+  <si>
+    <t>场景id</t>
+  </si>
+  <si>
+    <t>场景说明</t>
+  </si>
+  <si>
+    <t>des</t>
+  </si>
+  <si>
+    <t>战斗与非战斗都可以</t>
+  </si>
+  <si>
+    <t>仅非战斗</t>
+  </si>
+  <si>
+    <t>仅战斗</t>
   </si>
 </sst>
 </file>
@@ -136,7 +239,14 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,12 +410,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -618,55 +734,52 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -681,79 +794,91 @@
     <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1073,24 +1198,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="11.625" customWidth="1"/>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
-    <col min="3" max="3" width="15.125" customWidth="1"/>
-    <col min="4" max="5" width="16.625" customWidth="1"/>
-    <col min="6" max="6" width="19.7083333333333" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.75" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="4" width="8.875" customWidth="1"/>
+    <col min="5" max="5" width="33.75" customWidth="1"/>
+    <col min="6" max="6" width="8.875" customWidth="1"/>
+    <col min="7" max="7" width="15" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1100,102 +1226,390 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
         <v>9</v>
       </c>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="G3" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>10001</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4">
+        <v>17</v>
+      </c>
+      <c r="D4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:7">
+      <c r="A5" s="1">
         <v>10002</v>
       </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5">
-        <v>10</v>
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="F5" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>10003</v>
       </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="B6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6">
+        <v>16</v>
+      </c>
+      <c r="G6" s="5">
         <v>20</v>
       </c>
-      <c r="E6">
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:7">
+      <c r="A7" s="1">
+        <v>10004</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="1">
         <v>10</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G7" s="6">
         <v>15</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:7">
+      <c r="A8" s="1">
+        <v>10005</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="1">
+        <v>4</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="1">
+        <v>15</v>
+      </c>
+      <c r="G8" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:7">
+      <c r="A9" s="1">
+        <f t="shared" ref="A9:A18" si="0">A8+1</f>
+        <v>10006</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="1">
+        <v>20</v>
+      </c>
+      <c r="G9" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:7">
+      <c r="A10" s="1">
+        <f t="shared" si="0"/>
+        <v>10007</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="1">
+        <v>15</v>
+      </c>
+      <c r="G10" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:7">
+      <c r="A11" s="1">
+        <f t="shared" si="0"/>
+        <v>10008</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="1">
+        <v>15</v>
+      </c>
+      <c r="G11" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:7">
+      <c r="A12" s="1">
+        <f t="shared" si="0"/>
+        <v>10009</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="1">
+        <v>15</v>
+      </c>
+      <c r="G12" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:7">
+      <c r="A13" s="1">
+        <f t="shared" si="0"/>
+        <v>10010</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="1">
+        <v>15</v>
+      </c>
+      <c r="G13" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="1:7">
+      <c r="A14" s="1">
+        <f t="shared" si="0"/>
+        <v>10011</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="1">
+        <v>15</v>
+      </c>
+      <c r="G14" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:7">
+      <c r="A15" s="1">
+        <f t="shared" si="0"/>
+        <v>10012</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="1">
+        <v>4</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="1">
+        <v>10</v>
+      </c>
+      <c r="G15" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:7">
+      <c r="A16" s="1">
+        <f t="shared" si="0"/>
+        <v>10013</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="1">
+        <v>4</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="1">
+        <v>10</v>
+      </c>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:7">
+      <c r="A17" s="1">
+        <f t="shared" si="0"/>
+        <v>10014</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="1">
+        <v>4</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="1">
+        <v>5</v>
+      </c>
+      <c r="G17" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="1:7">
+      <c r="A18" s="1">
+        <f t="shared" si="0"/>
+        <v>10015</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="1">
+        <v>4</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="1">
+        <v>5</v>
+      </c>
+      <c r="G18" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="1:7">
+      <c r="A19" s="1">
+        <f>A18+1</f>
+        <v>10016</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="1">
+        <v>4</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="1">
+        <v>5</v>
+      </c>
+      <c r="G19" s="6">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1203,4 +1617,77 @@
   <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="1"/>
+  <cols>
+    <col min="2" max="2" width="23.6416666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:2">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:2">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:2">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:2">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Configs/Item.xlsx
+++ b/Configs/Item.xlsx
@@ -1,31 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Unity项目\BOOOM\BooomProject\Configs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BCD5683-CB35-4061-947B-34C90C238443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="17655" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="道具表" sheetId="1" r:id="rId1"/>
+    <sheet name="使用场景" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Martian</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -54,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="55">
   <si>
     <t>道具Id</t>
   </si>
@@ -65,6 +73,9 @@
     <t>道具图标</t>
   </si>
   <si>
+    <t>使用场景</t>
+  </si>
+  <si>
     <t>道具描述</t>
   </si>
   <si>
@@ -83,6 +94,9 @@
     <t>itemIcon</t>
   </si>
   <si>
+    <t>itemPos</t>
+  </si>
+  <si>
     <t>itemDesc</t>
   </si>
   <si>
@@ -113,6 +127,12 @@
     <t>能够恢复生命值</t>
   </si>
   <si>
+    <t>回复药+</t>
+  </si>
+  <si>
+    <t>能够恢复更多生命值</t>
+  </si>
+  <si>
     <t>修理工具</t>
   </si>
   <si>
@@ -120,131 +140,262 @@
   </si>
   <si>
     <t>爆炸药水</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>对敌人造成伤害</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>运气药水</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在本层中，获得+1幸运</t>
   </si>
   <si>
     <t>力量药水</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在本层中，获得+1力量</t>
   </si>
   <si>
     <t>体质药水</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在本层中，获得+1体质</t>
   </si>
   <si>
     <t>敏捷药水</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在本层中，获得+1敏捷</t>
   </si>
   <si>
     <t>灵巧药水</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在本层中，获得+1灵巧</t>
   </si>
   <si>
     <t>窃贼药水</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在本层中，通过战斗获得的金币增加</t>
   </si>
   <si>
     <t>活力药水</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在本回合中，获得+1行动点</t>
   </si>
   <si>
     <t>烟雾弹</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>立即逃离本场战斗并回到上一个房间</t>
   </si>
   <si>
     <t>血滴子</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对敌人造成伤害并获得1层【流血】</t>
   </si>
   <si>
     <t>毒飞刀</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对敌人造成伤害并获得1层【中毒】</t>
   </si>
   <si>
     <t>溶解剂</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在本层中，通过战斗获得的金币增加</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在本回合中，获得+1行动点</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>立即逃离本场战斗并回到上一个房间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>对敌人造成伤害并获得1层【中毒】</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>对敌人造成伤害并获得1层【流血】</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用场景</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>itemPos</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>降低敌人一个部位的耐久</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复药+</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>能够恢复更多生命值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在本层中，提高幸运等级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在本层中，提高力量等级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在本层中，提高体质等级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在本层中，提高敏捷等级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在本层中，提高灵巧等级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景id</t>
+  </si>
+  <si>
+    <t>场景说明</t>
+  </si>
+  <si>
+    <t>des</t>
+  </si>
+  <si>
+    <t>战斗与非战斗都可以</t>
+  </si>
+  <si>
+    <t>仅非战斗</t>
+  </si>
+  <si>
+    <t>仅战斗</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -258,31 +409,208 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -290,28 +618,323 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -569,30 +1192,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="11.625" customWidth="1"/>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
-    <col min="3" max="3" width="15.125" customWidth="1"/>
-    <col min="5" max="5" width="33.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.625" customWidth="1"/>
-    <col min="7" max="7" width="19.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.75" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="4" width="8.875" customWidth="1"/>
+    <col min="5" max="5" width="33.75" customWidth="1"/>
+    <col min="6" max="6" width="8.875" customWidth="1"/>
+    <col min="7" max="7" width="15" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -602,393 +1226,468 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>39</v>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>41</v>
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>40</v>
+        <v>15</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G3" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>10001</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:7">
+      <c r="A5" s="1">
         <v>10002</v>
       </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5">
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="1">
         <v>10</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>10003</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>43</v>
+      <c r="B6" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>44</v>
+        <v>2</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="F6">
         <v>16</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="5">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7">
+    <row r="7" s="1" customFormat="1" spans="1:7">
+      <c r="A7" s="1">
         <v>10004</v>
       </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7">
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="1">
+        <v>10</v>
+      </c>
+      <c r="G7" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:7">
+      <c r="A8" s="1">
+        <v>10005</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="1">
+        <v>4</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="1">
+        <v>15</v>
+      </c>
+      <c r="G8" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:7">
+      <c r="A9" s="1">
+        <f t="shared" ref="A9:A18" si="0">A8+1</f>
+        <v>10006</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="1">
+        <v>20</v>
+      </c>
+      <c r="G9" s="6">
         <v>1</v>
       </c>
-      <c r="E7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7">
-        <v>10</v>
-      </c>
-      <c r="G7" s="1">
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:7">
+      <c r="A10" s="1">
+        <f t="shared" si="0"/>
+        <v>10007</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>10005</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8">
-        <v>15</v>
-      </c>
-      <c r="G8" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <f>A8+1</f>
-        <v>10006</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9">
+      <c r="G10" s="6">
         <v>1</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9">
-        <v>20</v>
-      </c>
-      <c r="G9" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <f t="shared" ref="A10:A19" si="0">A9+1</f>
-        <v>10007</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10">
-        <v>15</v>
-      </c>
-      <c r="G10" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11">
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:7">
+      <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>10008</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11">
+      <c r="B11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="1">
+        <v>15</v>
+      </c>
+      <c r="G11" s="6">
         <v>1</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11">
-        <v>15</v>
-      </c>
-      <c r="G11" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12">
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:7">
+      <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>10009</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12">
+      <c r="B12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="1">
+        <v>15</v>
+      </c>
+      <c r="G12" s="6">
         <v>1</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12">
-        <v>15</v>
-      </c>
-      <c r="G12" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13">
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:7">
+      <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>10010</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13">
+      <c r="B13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="1">
+        <v>15</v>
+      </c>
+      <c r="G13" s="6">
         <v>1</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13">
-        <v>15</v>
-      </c>
-      <c r="G13" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14">
+    </row>
+    <row r="14" s="1" customFormat="1" spans="1:7">
+      <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>10011</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14">
+      <c r="B14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="1">
         <v>15</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15">
+    <row r="15" s="1" customFormat="1" spans="1:7">
+      <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>10012</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15">
+      <c r="B15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="1">
+        <v>4</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="1">
         <v>10</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16">
+    <row r="16" s="1" customFormat="1" spans="1:7">
+      <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>10013</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16">
+      <c r="B16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="1">
+        <v>4</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:7">
+      <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>10014</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17">
-        <v>2</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17">
+      <c r="B17" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="1">
+        <v>4</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="1">
         <v>5</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18">
+    <row r="18" s="1" customFormat="1" spans="1:7">
+      <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>10015</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18">
+      <c r="B18" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="1">
+        <v>4</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="1">
+        <v>5</v>
+      </c>
+      <c r="G18" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="1:7">
+      <c r="A19" s="1">
+        <f>A18+1</f>
+        <v>10016</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="1">
+        <v>4</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="1">
+        <v>5</v>
+      </c>
+      <c r="G19" s="6">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="1"/>
+  <cols>
+    <col min="2" max="2" width="23.6416666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:2">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:2">
+      <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F18">
-        <v>5</v>
-      </c>
-      <c r="G18" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <f t="shared" si="0"/>
-        <v>10016</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19">
-        <v>2</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F19">
-        <v>5</v>
-      </c>
-      <c r="G19" s="1">
-        <v>5</v>
+      <c r="B5" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:2">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:2">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>